--- a/outputs-HGR-r202/test-o__Bacteroidales_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-o__Bacteroidales_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="220">
   <si>
     <t>Row</t>
   </si>
@@ -694,7 +694,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -704,14 +704,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,57 +747,57 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -843,7 +847,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -893,7 +897,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -943,7 +947,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -993,7 +997,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1043,7 +1047,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1093,7 +1097,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1143,7 +1147,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1193,7 +1197,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1243,7 +1247,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1293,7 +1297,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1343,7 +1347,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1393,7 +1397,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1443,7 +1447,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1493,7 +1497,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1543,7 +1547,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1593,7 +1597,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1643,7 +1647,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1693,7 +1697,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1743,7 +1747,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1793,7 +1797,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1843,7 +1847,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1893,7 +1897,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1943,7 +1947,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1993,7 +1997,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -2043,7 +2047,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -2093,7 +2097,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -2143,7 +2147,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -2193,7 +2197,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -2243,7 +2247,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -2293,7 +2297,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -2343,7 +2347,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -2393,7 +2397,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -2443,7 +2447,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -2493,7 +2497,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -2543,7 +2547,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -2593,7 +2597,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -2643,7 +2647,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -2693,7 +2697,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -2743,7 +2747,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -2793,7 +2797,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -2843,7 +2847,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -2893,7 +2897,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -2943,7 +2947,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -2993,7 +2997,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -3043,7 +3047,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -3093,7 +3097,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -3143,7 +3147,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -3193,7 +3197,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -3243,7 +3247,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -3293,7 +3297,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -3343,7 +3347,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -3393,7 +3397,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -3443,7 +3447,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -3493,7 +3497,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -3543,7 +3547,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -3593,7 +3597,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -3643,7 +3647,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -3693,7 +3697,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -3743,7 +3747,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -3793,7 +3797,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -3843,7 +3847,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -3893,7 +3897,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -3943,7 +3947,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -3993,7 +3997,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -4043,7 +4047,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -4093,7 +4097,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -4143,7 +4147,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -4193,7 +4197,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -4243,7 +4247,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -4293,7 +4297,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -4343,7 +4347,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -4393,7 +4397,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -4443,7 +4447,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -4493,7 +4497,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -4543,7 +4547,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -4593,7 +4597,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -4643,7 +4647,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -4693,7 +4697,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -4743,7 +4747,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -4793,7 +4797,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -4843,7 +4847,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -4893,7 +4897,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -4943,7 +4947,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -4993,7 +4997,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -5043,7 +5047,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -5093,7 +5097,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -5143,7 +5147,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -5193,7 +5197,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -5243,7 +5247,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -5293,7 +5297,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -5343,7 +5347,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -5393,7 +5397,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -5443,7 +5447,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -5493,7 +5497,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -5543,7 +5547,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -5593,7 +5597,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -5643,7 +5647,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -5693,7 +5697,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -5743,7 +5747,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -5793,7 +5797,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -5843,7 +5847,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -5893,7 +5897,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -5943,7 +5947,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -5993,7 +5997,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -6043,7 +6047,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -6093,7 +6097,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -6143,7 +6147,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -6193,7 +6197,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -6243,7 +6247,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -6293,7 +6297,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -6343,7 +6347,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -6393,7 +6397,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -6443,7 +6447,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -6493,7 +6497,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -6543,7 +6547,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -6593,7 +6597,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -6643,7 +6647,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -6693,7 +6697,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -6743,7 +6747,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -6793,7 +6797,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -6843,7 +6847,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -6893,7 +6897,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -6943,7 +6947,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -6993,7 +6997,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -7043,7 +7047,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -7093,7 +7097,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -7143,7 +7147,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -7193,7 +7197,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -7243,7 +7247,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -7293,7 +7297,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -7343,7 +7347,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -7393,7 +7397,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -7443,7 +7447,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -7493,7 +7497,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -7543,7 +7547,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -7593,7 +7597,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -7643,7 +7647,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -7693,7 +7697,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -7743,7 +7747,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -7793,7 +7797,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -7843,7 +7847,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -7893,7 +7897,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -7943,7 +7947,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -7993,7 +7997,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -8043,7 +8047,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -8093,7 +8097,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -8143,7 +8147,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -8193,7 +8197,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -8243,7 +8247,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -8293,7 +8297,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -8343,7 +8347,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -8393,7 +8397,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -8443,7 +8447,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -8493,7 +8497,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -8543,7 +8547,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -8593,7 +8597,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -8643,7 +8647,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -8693,7 +8697,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -8743,7 +8747,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -8793,7 +8797,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -8843,7 +8847,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -8893,7 +8897,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -8943,7 +8947,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -8993,7 +8997,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -9043,7 +9047,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -9093,7 +9097,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -9143,7 +9147,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -9193,7 +9197,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -9243,7 +9247,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -9293,7 +9297,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -9343,7 +9347,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -9393,7 +9397,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -9443,7 +9447,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -9493,7 +9497,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -9543,7 +9547,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -9593,7 +9597,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -9643,7 +9647,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -9693,7 +9697,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -9743,7 +9747,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -9793,7 +9797,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -9843,7 +9847,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -9893,7 +9897,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -9943,7 +9947,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -9993,7 +9997,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -10043,7 +10047,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -10093,7 +10097,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -10143,7 +10147,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -10193,7 +10197,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -10243,7 +10247,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -10293,7 +10297,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -10343,7 +10347,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -10393,7 +10397,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -10443,7 +10447,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -10493,7 +10497,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -10543,7 +10547,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -10593,7 +10597,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -10643,7 +10647,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -10693,7 +10697,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -10743,7 +10747,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -10793,7 +10797,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -10843,7 +10847,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -10893,7 +10897,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -10943,7 +10947,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B205">
